--- a/Grupparbete/Prioriteringsschema.xlsx
+++ b/Grupparbete/Prioriteringsschema.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\XD\Frontend\Grupparbete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\uxGrupparbete\Grupparbete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785" xr2:uid="{C5CDE077-C783-4DCB-9335-849D87B0182B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7790" xr2:uid="{C5CDE077-C783-4DCB-9335-849D87B0182B}"/>
   </bookViews>
   <sheets>
     <sheet name="User cases" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Och har laddat ner appen</t>
   </si>
   <si>
-    <t>Då borde jag få notis om tillgängligt boende</t>
-  </si>
-  <si>
     <t>Scenario:</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t xml:space="preserve">Förutsatt att jag har lämnat intresseanmälan </t>
   </si>
   <si>
-    <t>då borde jag få notis om min köplats</t>
-  </si>
-  <si>
     <t>Funktion: Erbjuda tjänsten tillgängliga bostäder</t>
   </si>
   <si>
@@ -202,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Då borde jag få notis via email/appen eller på klockan om tillgängligt boende</t>
+  </si>
+  <si>
+    <t>kan jag se min köplats på mina sidor</t>
   </si>
 </sst>
 </file>
@@ -784,186 +784,186 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D0B18D-EFD3-4999-AEF6-1F41B603671E}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -979,543 +979,543 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="18">
         <v>1</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="15">
         <v>2</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="21">
         <v>3</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="14">
         <v>4</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F9" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="5"/>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="F13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
       <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I14" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I15" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="23">
         <v>2</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I16" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I17" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="21">
         <v>3</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I18" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="14">
         <v>4</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I19" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="C24" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="22">
         <v>5</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Grupparbete/Prioriteringsschema.xlsx
+++ b/Grupparbete/Prioriteringsschema.xlsx
@@ -285,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -429,6 +429,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -436,10 +473,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -465,6 +501,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -782,39 +821,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D0B18D-EFD3-4999-AEF6-1F41B603671E}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.54296875" customWidth="1"/>
+    <col min="1" max="1" width="67.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="29"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -841,128 +880,133 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
+      <c r="A13" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="28"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="28"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="29" t="s">
         <v>47</v>
       </c>
     </row>
@@ -988,533 +1032,533 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="H4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="20">
         <v>3</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="14">
+      <c r="C7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13">
         <v>4</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="21">
+      <c r="H7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="22">
+      <c r="C8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21">
         <v>5</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="H8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="H9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="27">
+      <c r="C15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="26">
         <v>1</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="H15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>2</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="H17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="20">
         <v>3</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="14">
+      <c r="C19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="13">
         <v>4</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="H19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="C20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="18">
+      <c r="C25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="21">
+      <c r="C27" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="C28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="C29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="21">
         <v>5</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Grupparbete/Prioriteringsschema.xlsx
+++ b/Grupparbete/Prioriteringsschema.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7790" xr2:uid="{C5CDE077-C783-4DCB-9335-849D87B0182B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7790" activeTab="2" xr2:uid="{C5CDE077-C783-4DCB-9335-849D87B0182B}"/>
   </bookViews>
   <sheets>
     <sheet name="User cases" sheetId="1" r:id="rId1"/>
     <sheet name="Prioritering" sheetId="2" r:id="rId2"/>
+    <sheet name="Prestandabudget" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
   <si>
     <t>För att få bostad innan terminsstart</t>
   </si>
@@ -202,13 +203,40 @@
   </si>
   <si>
     <t>kan jag se min köplats på mina sidor</t>
+  </si>
+  <si>
+    <t>Page: Logga in</t>
+  </si>
+  <si>
+    <t>Page: Specifik bostad</t>
+  </si>
+  <si>
+    <t>Knapp för intresseanmälan</t>
+  </si>
+  <si>
+    <t>Linnéstudenterna</t>
+  </si>
+  <si>
+    <t>Studenträddarna</t>
+  </si>
+  <si>
+    <t>imageSize</t>
+  </si>
+  <si>
+    <t>cssSize</t>
+  </si>
+  <si>
+    <t>headerSize</t>
+  </si>
+  <si>
+    <t>bodySize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +261,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -467,13 +502,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -504,12 +540,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="3" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -823,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D0B18D-EFD3-4999-AEF6-1F41B603671E}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1017,15 +1056,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7834CAC6-2B63-47F7-90EA-F6CACB1F1ACB}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" customWidth="1"/>
     <col min="6" max="6" width="22.453125" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
@@ -1283,283 +1322,499 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="22">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13">
+        <v>4</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="H23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="10">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="9" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="20">
+        <v>3</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="13">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="21">
+        <v>5</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="C33" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="26">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="22">
-        <v>2</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="C34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="20">
-        <v>3</v>
-      </c>
-      <c r="F18" s="11" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="13">
+      <c r="C35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="13">
-        <v>4</v>
-      </c>
-      <c r="F19" s="21" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="B36" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="21">
+      <c r="C36" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="21">
-        <v>5</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>56</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F41D26E-C588-4CDD-A11A-3C0E03ABE3D8}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>2046759</v>
+      </c>
+      <c r="C2">
+        <v>1489696</v>
+      </c>
+      <c r="D2" s="31">
+        <f>1-C2/B2</f>
+        <v>0.27216834028823134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>1096513</v>
+      </c>
+      <c r="C3">
+        <v>41195</v>
+      </c>
+      <c r="D3" s="31">
+        <f t="shared" ref="D3:D5" si="0">1-C3/B3</f>
+        <v>0.96243090597193104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>4277416</v>
+      </c>
+      <c r="C4">
+        <v>1671725</v>
+      </c>
+      <c r="D4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.60917409015162427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>101781</v>
+      </c>
+      <c r="C5">
+        <v>7609</v>
+      </c>
+      <c r="D5" s="31">
+        <f t="shared" si="0"/>
+        <v>0.92524144977942835</v>
       </c>
     </row>
   </sheetData>
